--- a/techniqo/intrinsic/intrinsic.xlsx
+++ b/techniqo/intrinsic/intrinsic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\Websitee\techniqo\intrinsic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\website_mid\techniqo\intrinsic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7235,16 +7235,18 @@
   <dimension ref="A1:J2256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="50" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="25" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
